--- a/Figure5/Figure 5A-stats.xlsx
+++ b/Figure5/Figure 5A-stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengyu/Documents/GitHub/ThalLexicality/Figure5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2DCA503-9A93-404D-928E-F4CDB430BDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9807752A-13AA-A440-A348-D9E92BC2ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{E6329B19-ED3D-3A45-B9BB-93C3082B5E2C}"/>
+    <workbookView xWindow="7200" yWindow="6700" windowWidth="28040" windowHeight="17440" xr2:uid="{E6329B19-ED3D-3A45-B9BB-93C3082B5E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>t_stat</t>
   </si>
   <si>
     <t>p_val</t>
+  </si>
+  <si>
+    <t>cohen_d</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2D4711-9A6F-CB4D-92B1-969D406A7125}">
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,126 +528,251 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3.5704843855098999E-2</v>
+      </c>
+      <c r="C2">
+        <v>-0.17759880560770799</v>
+      </c>
+      <c r="D2">
+        <v>-0.23717028232126</v>
+      </c>
+      <c r="E2">
+        <v>0.14147221852164399</v>
+      </c>
+      <c r="F2">
+        <v>0.47808110264239301</v>
+      </c>
+      <c r="G2">
+        <v>-7.9122676811000797E-2</v>
+      </c>
+      <c r="H2">
+        <v>-0.52049962355445101</v>
+      </c>
+      <c r="I2">
+        <v>-0.273760577179336</v>
+      </c>
+      <c r="J2">
+        <v>0.245648654259044</v>
+      </c>
+      <c r="K2">
+        <v>0.17524621075107699</v>
+      </c>
+      <c r="L2">
+        <v>-0.18126688492952001</v>
+      </c>
+      <c r="M2">
+        <v>-0.36337192815164798</v>
+      </c>
+      <c r="N2">
+        <v>-0.17071801625083399</v>
+      </c>
+      <c r="O2">
+        <v>-0.116152385778585</v>
+      </c>
+      <c r="P2">
+        <v>-0.38895225282039297</v>
+      </c>
+      <c r="Q2">
+        <v>-7.8796711407194395E-2</v>
+      </c>
+      <c r="R2">
+        <v>0.23038607577460099</v>
+      </c>
+      <c r="S2">
+        <v>0.445710096551793</v>
+      </c>
+      <c r="T2">
+        <v>0.72020306891191499</v>
+      </c>
+      <c r="U2">
+        <v>0.69070411999592396</v>
+      </c>
+      <c r="V2">
+        <v>0.80389634053417902</v>
+      </c>
+      <c r="W2">
+        <v>0.87023597940353803</v>
+      </c>
+      <c r="X2">
+        <v>0.66646464099024205</v>
+      </c>
+      <c r="Y2">
+        <v>0.52491422349533801</v>
+      </c>
+      <c r="Z2">
+        <v>0.75934436981492903</v>
+      </c>
+      <c r="AA2">
+        <v>0.79757187979174504</v>
+      </c>
+      <c r="AB2">
+        <v>0.84410540573565396</v>
+      </c>
+      <c r="AC2">
+        <v>0.77361181826679903</v>
+      </c>
+      <c r="AD2">
+        <v>0.40596486747713001</v>
+      </c>
+      <c r="AE2">
+        <v>0.51448693832762105</v>
+      </c>
+      <c r="AF2">
+        <v>0.45169676689079502</v>
+      </c>
+      <c r="AG2">
+        <v>0.114444468411181</v>
+      </c>
+      <c r="AH2">
+        <v>-0.13764632946087799</v>
+      </c>
+      <c r="AI2">
+        <v>-6.2109707824082698E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>0.207723160357415</v>
+      </c>
+      <c r="AK2">
+        <v>0.22363258045164899</v>
+      </c>
+      <c r="AL2">
+        <v>7.7422392596438003E-2</v>
+      </c>
+      <c r="AM2">
+        <v>-0.133922524545214</v>
+      </c>
+      <c r="AN2">
+        <v>-0.36194597531528</v>
+      </c>
+      <c r="AO2">
+        <v>-0.40818063227781598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.820327126087665</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.26222655472170298</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.136720619738293</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.37043222876103898</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>3.9283587218455996E-3</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.61519427981781605</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>1.85982101919816E-3</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>8.72772109264187E-2</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>0.123615063161243</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0.26850091241340202</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>0.25265473050010701</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>2.5130113125506798E-2</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>0.28087710608814598</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>0.46138153653274599</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>1.7008075177533E-2</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>0.61664664408521697</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>0.14798981204540301</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>6.8084282092243003E-3</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T3" s="1">
         <v>4.0457441663579803E-5</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U3" s="1">
         <v>7.2942052461003105E-5</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V3" s="1">
         <v>7.39270937303872E-6</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W3" s="1">
         <v>1.88552249557715E-6</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>1.17813788102292E-4</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>1.7177737210585899E-3</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z3" s="1">
         <v>1.8350771340000802E-5</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA3" s="1">
         <v>8.4153568261975296E-6</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB3" s="1">
         <v>3.2339890612490602E-6</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC3" s="1">
         <v>1.37283544739144E-5</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>1.3015979421891401E-2</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>2.0713831033189198E-3</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>6.1588824470538098E-3</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>0.467951902126932</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>0.38338497360136398</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>0.69296867803428597</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>0.191027360673721</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>0.15992726914829</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>0.62278711174351398</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>0.39626510178084501</v>
       </c>
-      <c r="AN2">
+      <c r="AN3">
         <v>2.5671873873859202E-2</v>
       </c>
-      <c r="AO2">
+      <c r="AO3">
         <v>1.25646615055657E-2</v>
       </c>
     </row>
